--- a/processed_noise_results/noise_summary_Success_for_0.9_GS_Energy.xlsx
+++ b/processed_noise_results/noise_summary_Success_for_0.9_GS_Energy.xlsx
@@ -12,6 +12,7 @@
     <sheet name="G30" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="G27" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="small_problems" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="large_graphs" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2311,4 +2312,382 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>snn</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fon</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cac</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cfc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9825</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8075</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3225</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7075</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>